--- a/examples/ex06-sdmx.xlsx
+++ b/examples/ex06-sdmx.xlsx
@@ -1,37 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\smalcolm\skunk\claude\acdc-wip\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smalcolm/skunk/acdc-wip/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F04FEE-CFCC-40E0-9E8A-AB3A88B4EE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D5148C-B06B-D447-ACAE-6B173387F974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="2" activeTab="2" xr2:uid="{5C6EE7E5-5757-40BF-A135-0B3C43CC6825}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
-    <sheet name="EX6" sheetId="7" r:id="rId2"/>
-    <sheet name="SDMX Schema" sheetId="6" r:id="rId3"/>
-    <sheet name="Concepts" sheetId="3" r:id="rId4"/>
-    <sheet name="Codelists" sheetId="2" r:id="rId5"/>
-    <sheet name="DSD" sheetId="4" r:id="rId6"/>
+    <sheet name="SDMX Schema" sheetId="6" r:id="rId2"/>
+    <sheet name="EX6" sheetId="7" r:id="rId3"/>
+    <sheet name="DSD" sheetId="4" r:id="rId4"/>
+    <sheet name="Concepts" sheetId="3" r:id="rId5"/>
+    <sheet name="Codelists" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
   <si>
     <t>Codelist Full Identifier</t>
   </si>
@@ -66,9 +76,6 @@
     <t>DSD Full ID</t>
   </si>
   <si>
-    <t>DSD ID</t>
-  </si>
-  <si>
     <t>Component Type</t>
   </si>
   <si>
@@ -286,13 +293,88 @@
   </si>
   <si>
     <t>How do we link attributes to targets? (in this case USUBJID)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>DSD Name</t>
+  </si>
+  <si>
+    <t>Analysis Dataset ADMOOD</t>
+  </si>
+  <si>
+    <t>Multivariate Analysis of Variance of No Overall Treatment Effect at Week 6</t>
+  </si>
+  <si>
+    <t>CDISC.ACDC:DSD_ADMOOD(1.0.0)</t>
+  </si>
+  <si>
+    <t>CDISC.ACDC:DSD_Table_2_6_3_1(1.0.0)</t>
+  </si>
+  <si>
+    <t>CDISC.ACDC:CS_DERIVATION</t>
+  </si>
+  <si>
+    <t>Derivation Concepts</t>
+  </si>
+  <si>
+    <t>Planned Treatment</t>
+  </si>
+  <si>
+    <t>ITT Population</t>
+  </si>
+  <si>
+    <t>POMS Subscore</t>
+  </si>
+  <si>
+    <t>Analysis Visit</t>
+  </si>
+  <si>
+    <t>Analysis Baseline Flag</t>
+  </si>
+  <si>
+    <t>CDISC.ACDC:CS_ANALYSIS</t>
+  </si>
+  <si>
+    <t>Analysis Concepts</t>
+  </si>
+  <si>
+    <t>WILKS</t>
+  </si>
+  <si>
+    <t>Multivariate Analysis of Variance of No Overall Treatment Effect at Week 7</t>
+  </si>
+  <si>
+    <t>Multivariate Analysis of Variance of No Overall Treatment Effect at Week 8</t>
+  </si>
+  <si>
+    <t>Wilks Lambda Multivariate Test for Overall Treatment Effect</t>
+  </si>
+  <si>
+    <t>CL_WILKS</t>
+  </si>
+  <si>
+    <t>WLAMBDA</t>
+  </si>
+  <si>
+    <t>Wilks Lamdba</t>
+  </si>
+  <si>
+    <t>PVALUE</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>Change from baseline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,16 +414,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -364,12 +470,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,21 +524,41 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -414,14 +577,63 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>40298</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30820</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>107001</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6581775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>170038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08DF846-0911-3613-536F-35B057079484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2974687"/>
+          <a:ext cx="6581775" cy="5567826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>239463</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>16287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -444,8 +656,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5293702"/>
-          <a:ext cx="6621388" cy="3836405"/>
+          <a:off x="1143000" y="5528513"/>
+          <a:ext cx="7052106" cy="4067203"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -501,58 +713,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6581775</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>170038</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08DF846-0911-3613-536F-35B057079484}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2974687"/>
-          <a:ext cx="6581775" cy="5567826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8D68220A-403C-4197-B353-8B8D59E7F41E}" name="Table3" displayName="Table3" ref="A1:G15" totalsRowShown="0">
+  <autoFilter ref="A1:G15" xr:uid="{8D68220A-403C-4197-B353-8B8D59E7F41E}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CF86F5FF-9168-4C34-A640-19B774A9C164}" name="DSD Full ID"/>
+    <tableColumn id="2" xr3:uid="{33AB38AE-793A-493C-BB08-B154CE43060F}" name="DSD Name"/>
+    <tableColumn id="3" xr3:uid="{663D5876-06BD-4CA8-B07C-200970F10365}" name="Component Type"/>
+    <tableColumn id="4" xr3:uid="{C41095F8-E4BA-43DF-8B55-B1B90165C1C7}" name="Component ID"/>
+    <tableColumn id="5" xr3:uid="{84FC2995-B270-4939-9738-C463B3D45A70}" name="Related Concept" dataDxfId="0">
+      <calculatedColumnFormula>"CDISC.ACDC:CS_DERIVATION."&amp;Table3[[#This Row],[Component ID]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3C1F7722-0282-4DB8-A311-57CC7BDD6003}" name="Codelist ID"/>
+    <tableColumn id="7" xr3:uid="{85131C96-8697-422E-9B05-5D8A97368B18}" name="Type"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9D03A2A2-95C7-4954-940B-85D168690A5F}" name="Table2" displayName="Table2" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{9D03A2A2-95C7-4954-940B-85D168690A5F}"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9D03A2A2-95C7-4954-940B-85D168690A5F}" name="Table2" displayName="Table2" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8" xr:uid="{9D03A2A2-95C7-4954-940B-85D168690A5F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AF82A7F8-08BC-457C-A6AA-336B5B970CF5}" name="Concept Schema ID"/>
     <tableColumn id="2" xr3:uid="{12CEF6D7-3A23-4B33-AE9D-C98EEA2FA813}" name="Concept Schema Name"/>
@@ -565,32 +746,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6EE4F5A-990C-4397-9B6C-8AD455DA4261}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13" xr:uid="{E6EE4F5A-990C-4397-9B6C-8AD455DA4261}"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6EE4F5A-990C-4397-9B6C-8AD455DA4261}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0">
+  <autoFilter ref="A1:D15" xr:uid="{E6EE4F5A-990C-4397-9B6C-8AD455DA4261}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A6FD721D-51A1-4820-9313-A9FFD43D0300}" name="Codelist Full Identifier"/>
+    <tableColumn id="1" xr3:uid="{A6FD721D-51A1-4820-9313-A9FFD43D0300}" name="Codelist Full Identifier" dataDxfId="1">
+      <calculatedColumnFormula>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{B73003BC-800E-4A32-884F-1661ABCCDDC0}" name="Codelist Name"/>
     <tableColumn id="3" xr3:uid="{2E71583E-3DB2-46B6-88EA-A2C6BC6D2A92}" name="Code ID"/>
     <tableColumn id="4" xr3:uid="{CAC53B23-8DF5-47EB-A981-82BE020A54A4}" name="Code Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8D68220A-403C-4197-B353-8B8D59E7F41E}" name="Table3" displayName="Table3" ref="A1:G12" totalsRowShown="0">
-  <autoFilter ref="A1:G12" xr:uid="{8D68220A-403C-4197-B353-8B8D59E7F41E}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CF86F5FF-9168-4C34-A640-19B774A9C164}" name="DSD Full ID"/>
-    <tableColumn id="2" xr3:uid="{33AB38AE-793A-493C-BB08-B154CE43060F}" name="DSD ID"/>
-    <tableColumn id="3" xr3:uid="{663D5876-06BD-4CA8-B07C-200970F10365}" name="Component Type"/>
-    <tableColumn id="4" xr3:uid="{C41095F8-E4BA-43DF-8B55-B1B90165C1C7}" name="Component ID"/>
-    <tableColumn id="5" xr3:uid="{84FC2995-B270-4939-9738-C463B3D45A70}" name="Related Concept"/>
-    <tableColumn id="6" xr3:uid="{3C1F7722-0282-4DB8-A311-57CC7BDD6003}" name="Codelist ID"/>
-    <tableColumn id="7" xr3:uid="{85131C96-8697-422E-9B05-5D8A97368B18}" name="Type"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -862,51 +1029,50 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.06640625" customWidth="1"/>
+    <col min="1" max="1" width="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" ht="77.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -915,162 +1081,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DFD1B0-E37B-440C-B1FA-D8A9ED71F784}">
-  <dimension ref="A1:N23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="6.53125" customWidth="1"/>
-    <col min="2" max="2" width="7.9296875" customWidth="1"/>
-    <col min="3" max="3" width="8.06640625" customWidth="1"/>
-    <col min="4" max="4" width="7.86328125" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" customWidth="1"/>
-    <col min="6" max="6" width="5.59765625" customWidth="1"/>
-    <col min="7" max="7" width="25.9296875" customWidth="1"/>
-    <col min="9" max="9" width="7.19921875" customWidth="1"/>
-    <col min="10" max="10" width="7.46484375" customWidth="1"/>
-    <col min="11" max="11" width="6.46484375" customWidth="1"/>
-    <col min="12" max="12" width="5.59765625" customWidth="1"/>
-    <col min="13" max="13" width="5.46484375" customWidth="1"/>
-    <col min="14" max="14" width="4.9296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB2AB87-8770-41D8-BE34-9BB41DB3B77B}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="1">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="93.19921875" customWidth="1"/>
+    <col min="1" max="1" width="93.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1082,49 +1158,461 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF525BA0-112A-4880-9D0E-B1E058CC147D}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DFD1B0-E37B-440C-B1FA-D8A9ED71F784}">
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.265625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.46484375" customWidth="1"/>
-    <col min="4" max="4" width="14.53125" customWidth="1"/>
-    <col min="5" max="5" width="14.46484375" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2F73CF-CFA0-4270-8217-529591832CB8}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="str">
+        <f>"CDISC.ACDC:CS_DERIVATION."&amp;Table3[[#This Row],[Component ID]]</f>
+        <v>CDISC.ACDC:CS_DERIVATION.TRTP</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="str">
+        <f>"CDISC.ACDC:CS_DERIVATION."&amp;Table3[[#This Row],[Component ID]]</f>
+        <v>CDISC.ACDC:CS_DERIVATION.ITTFL</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="str">
+        <f>"CDISC.ACDC:CS_DERIVATION."&amp;Table3[[#This Row],[Component ID]]</f>
+        <v>CDISC.ACDC:CS_DERIVATION.POMS_SUB</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="str">
+        <f>"CDISC.ACDC:CS_DERIVATION."&amp;Table3[[#This Row],[Component ID]]</f>
+        <v>CDISC.ACDC:CS_DERIVATION.AVISIT</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="str">
+        <f>"CDISC.ACDC:CS_DERIVATION."&amp;Table3[[#This Row],[Component ID]]</f>
+        <v>CDISC.ACDC:CS_DERIVATION.ABLFL</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="str">
+        <f>"CDISC.ACDC:CS_DERIVATION."&amp;Table3[[#This Row],[Component ID]]</f>
+        <v>CDISC.ACDC:CS_DERIVATION.POMS_SUB</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"CDISC.ACDC:CS_DERIVATION."&amp;Table3[[#This Row],[Component ID]]</f>
+        <v>CDISC.ACDC:CS_DERIVATION.ITTFL</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="str">
+        <f>"CDISC.ACDC:CS_ANALYSIS."&amp;Table3[[#This Row],[Component ID]]</f>
+        <v>CDISC.ACDC:CS_ANALYSIS.WILKS</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E15" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1132,171 +1620,150 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB5745F-488B-47EA-88D9-85E209ADA4C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF525BA0-112A-4880-9D0E-B1E058CC147D}">
   <sheetPr>
-    <tabColor theme="7"/>
+    <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.73046875" customWidth="1"/>
-    <col min="2" max="2" width="14.9296875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="49.5" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
       <c r="D4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1308,173 +1775,246 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2F73CF-CFA0-4270-8217-529591832CB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB5745F-488B-47EA-88D9-85E209ADA4C1}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-    <sheetView zoomScale="84" workbookViewId="1">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="18.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.9296875" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_TRT(1.0.0)</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_TRT(1.0.0)</v>
+      </c>
+      <c r="B3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_POMS_SUB(1.0.0)</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_POMS_SUB(1.0.0)</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_POMS_SUB(1.0.0)</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_POMS_SUB(1.0.0)</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_POMS_SUB(1.0.0)</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_POMS_SUB(1.0.0)</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_AVISIT(1.0.0)</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_AVISIT(1.0.0)</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_YN(1.0.0)</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
       <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_YN(1.0.0)</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_WILKS(1.0.0)</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="str">
+        <f>"CDISC.ACDC:"&amp;Table1[[#This Row],[Codelist Name]]&amp;"(1.0.0)"</f>
+        <v>CDISC.ACDC:CL_WILKS(1.0.0)</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
